--- a/sudoku_solver_analysis.xlsx
+++ b/sudoku_solver_analysis.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vikram Vasudevan\Documents\Vikram\Official\Study\python\sudoku_solver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E128A844-66C4-4156-B77B-467050A4A722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E33F0001-8F46-48D0-A937-5FD06E380D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DB87C03A-0C91-4F56-A7E2-3B90D592D541}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{DB87C03A-0C91-4F56-A7E2-3B90D592D541}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,12 +36,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -152,9 +159,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -165,6 +169,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -483,8 +490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD6DA3A8-84E4-4A29-AF13-9CF5D18A4D92}">
   <dimension ref="A1:V9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.77734375" defaultRowHeight="31.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -552,28 +559,28 @@
       <c r="A2" s="5">
         <v>0</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="4">
         <v>5</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="6">
         <v>6</v>
       </c>
       <c r="D2" s="5">
         <v>9</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="4">
         <v>1</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="6">
         <v>7</v>
       </c>
       <c r="G2" s="5">
         <v>0</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="4">
         <v>3</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="6">
         <v>0</v>
       </c>
       <c r="N2" s="4">
@@ -614,31 +621,31 @@
       </c>
     </row>
     <row r="3" spans="1:22" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="8">
-        <v>0</v>
-      </c>
-      <c r="B3" s="9">
+      <c r="A3" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3" s="8">
         <v>4</v>
       </c>
-      <c r="C3" s="10">
-        <v>0</v>
-      </c>
-      <c r="D3" s="8">
-        <v>0</v>
-      </c>
-      <c r="E3" s="9">
+      <c r="C3" s="9">
+        <v>0</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0</v>
+      </c>
+      <c r="E3" s="8">
         <v>5</v>
       </c>
-      <c r="F3" s="10">
-        <v>0</v>
-      </c>
-      <c r="G3" s="8">
+      <c r="F3" s="9">
+        <v>0</v>
+      </c>
+      <c r="G3" s="7">
         <v>8</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="8">
         <v>7</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="9">
         <v>1</v>
       </c>
       <c r="N3" s="4">
@@ -747,28 +754,28 @@
       <c r="A5" s="5">
         <v>6</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="4">
         <v>7</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>1</v>
       </c>
       <c r="D5" s="5">
         <v>0</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="4">
         <v>9</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <v>5</v>
       </c>
       <c r="G5" s="5">
         <v>2</v>
       </c>
-      <c r="H5" s="6">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6">
         <v>0</v>
       </c>
       <c r="N5" s="4">
@@ -809,31 +816,31 @@
       </c>
     </row>
     <row r="6" spans="1:22" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="8">
-        <v>0</v>
-      </c>
-      <c r="B6" s="9">
-        <v>0</v>
-      </c>
-      <c r="C6" s="10">
-        <v>0</v>
-      </c>
-      <c r="D6" s="8">
-        <v>0</v>
-      </c>
-      <c r="E6" s="9">
+      <c r="A6" s="7">
+        <v>0</v>
+      </c>
+      <c r="B6" s="8">
+        <v>0</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="8">
         <v>2</v>
       </c>
-      <c r="F6" s="10">
-        <v>0</v>
-      </c>
-      <c r="G6" s="8">
+      <c r="F6" s="9">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7">
         <v>1</v>
       </c>
-      <c r="H6" s="9">
-        <v>0</v>
-      </c>
-      <c r="I6" s="10">
+      <c r="H6" s="8">
+        <v>0</v>
+      </c>
+      <c r="I6" s="9">
         <v>0</v>
       </c>
       <c r="N6" s="4">
@@ -942,28 +949,28 @@
       <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="4">
         <v>8</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>0</v>
       </c>
       <c r="D8" s="5">
         <v>0</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="4">
         <v>7</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="6">
         <v>0</v>
       </c>
       <c r="G8" s="5">
         <v>3</v>
       </c>
-      <c r="H8" s="6">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="6">
         <v>0</v>
       </c>
       <c r="N8" s="4">
@@ -1004,31 +1011,31 @@
       </c>
     </row>
     <row r="9" spans="1:22" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="8">
-        <v>0</v>
-      </c>
-      <c r="B9" s="9">
+      <c r="A9" s="7">
+        <v>0</v>
+      </c>
+      <c r="B9" s="8">
         <v>2</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="9">
         <v>5</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <v>4</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="8">
         <v>6</v>
       </c>
-      <c r="F9" s="10">
-        <v>0</v>
-      </c>
-      <c r="G9" s="8">
-        <v>0</v>
-      </c>
-      <c r="H9" s="9">
-        <v>0</v>
-      </c>
-      <c r="I9" s="10">
+      <c r="F9" s="9">
+        <v>0</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0</v>
+      </c>
+      <c r="H9" s="8">
+        <v>0</v>
+      </c>
+      <c r="I9" s="9">
         <v>0</v>
       </c>
       <c r="N9" s="4">
@@ -1066,6 +1073,419 @@
       <c r="V9" s="4">
         <f t="shared" si="8"/>
         <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BF9D6E7-024D-4244-B6F3-94DA550FD5DF}">
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="6.33203125" defaultRowHeight="26.4" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:10" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="10">
+        <v>0</v>
+      </c>
+      <c r="C1" s="10">
+        <v>1</v>
+      </c>
+      <c r="D1" s="10">
+        <v>2</v>
+      </c>
+      <c r="E1" s="10">
+        <v>3</v>
+      </c>
+      <c r="F1" s="10">
+        <v>4</v>
+      </c>
+      <c r="G1" s="10">
+        <v>5</v>
+      </c>
+      <c r="H1" s="10">
+        <v>6</v>
+      </c>
+      <c r="I1" s="10">
+        <v>7</v>
+      </c>
+      <c r="J1" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="str">
+        <f>$A2 &amp; "," &amp; B$1</f>
+        <v>0,0</v>
+      </c>
+      <c r="C2" s="4" t="str">
+        <f t="shared" ref="C2:J10" si="0">$A2 &amp; "," &amp; C$1</f>
+        <v>0,1</v>
+      </c>
+      <c r="D2" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0,2</v>
+      </c>
+      <c r="E2" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0,3</v>
+      </c>
+      <c r="F2" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0,4</v>
+      </c>
+      <c r="G2" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0,5</v>
+      </c>
+      <c r="H2" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0,6</v>
+      </c>
+      <c r="I2" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0,7</v>
+      </c>
+      <c r="J2" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0,8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="str">
+        <f t="shared" ref="B3:B10" si="1">$A3 &amp; "," &amp; B$1</f>
+        <v>1,0</v>
+      </c>
+      <c r="C3" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>1,1</v>
+      </c>
+      <c r="D3" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>1,2</v>
+      </c>
+      <c r="E3" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>1,3</v>
+      </c>
+      <c r="F3" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>1,4</v>
+      </c>
+      <c r="G3" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>1,5</v>
+      </c>
+      <c r="H3" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>1,6</v>
+      </c>
+      <c r="I3" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>1,7</v>
+      </c>
+      <c r="J3" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>1,8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>2,0</v>
+      </c>
+      <c r="C4" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>2,1</v>
+      </c>
+      <c r="D4" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>2,2</v>
+      </c>
+      <c r="E4" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>2,3</v>
+      </c>
+      <c r="F4" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>2,4</v>
+      </c>
+      <c r="G4" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>2,5</v>
+      </c>
+      <c r="H4" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>2,6</v>
+      </c>
+      <c r="I4" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>2,7</v>
+      </c>
+      <c r="J4" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>2,8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>3,0</v>
+      </c>
+      <c r="C5" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>3,1</v>
+      </c>
+      <c r="D5" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>3,2</v>
+      </c>
+      <c r="E5" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>3,3</v>
+      </c>
+      <c r="F5" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>3,4</v>
+      </c>
+      <c r="G5" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>3,5</v>
+      </c>
+      <c r="H5" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>3,6</v>
+      </c>
+      <c r="I5" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>3,7</v>
+      </c>
+      <c r="J5" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>3,8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>4,0</v>
+      </c>
+      <c r="C6" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>4,1</v>
+      </c>
+      <c r="D6" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>4,2</v>
+      </c>
+      <c r="E6" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>4,3</v>
+      </c>
+      <c r="F6" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>4,4</v>
+      </c>
+      <c r="G6" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>4,5</v>
+      </c>
+      <c r="H6" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>4,6</v>
+      </c>
+      <c r="I6" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>4,7</v>
+      </c>
+      <c r="J6" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>4,8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>5,0</v>
+      </c>
+      <c r="C7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>5,1</v>
+      </c>
+      <c r="D7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>5,2</v>
+      </c>
+      <c r="E7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>5,3</v>
+      </c>
+      <c r="F7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>5,4</v>
+      </c>
+      <c r="G7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>5,5</v>
+      </c>
+      <c r="H7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>5,6</v>
+      </c>
+      <c r="I7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>5,7</v>
+      </c>
+      <c r="J7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>5,8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>6,0</v>
+      </c>
+      <c r="C8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>6,1</v>
+      </c>
+      <c r="D8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>6,2</v>
+      </c>
+      <c r="E8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>6,3</v>
+      </c>
+      <c r="F8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>6,4</v>
+      </c>
+      <c r="G8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>6,5</v>
+      </c>
+      <c r="H8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>6,6</v>
+      </c>
+      <c r="I8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>6,7</v>
+      </c>
+      <c r="J8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>6,8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="10">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>7,0</v>
+      </c>
+      <c r="C9" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>7,1</v>
+      </c>
+      <c r="D9" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>7,2</v>
+      </c>
+      <c r="E9" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>7,3</v>
+      </c>
+      <c r="F9" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>7,4</v>
+      </c>
+      <c r="G9" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>7,5</v>
+      </c>
+      <c r="H9" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>7,6</v>
+      </c>
+      <c r="I9" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>7,7</v>
+      </c>
+      <c r="J9" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>7,8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>8,0</v>
+      </c>
+      <c r="C10" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>8,1</v>
+      </c>
+      <c r="D10" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>8,2</v>
+      </c>
+      <c r="E10" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>8,3</v>
+      </c>
+      <c r="F10" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>8,4</v>
+      </c>
+      <c r="G10" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>8,5</v>
+      </c>
+      <c r="H10" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>8,6</v>
+      </c>
+      <c r="I10" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>8,7</v>
+      </c>
+      <c r="J10" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>8,8</v>
       </c>
     </row>
   </sheetData>

--- a/sudoku_solver_analysis.xlsx
+++ b/sudoku_solver_analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vikram Vasudevan\Documents\Vikram\Official\Study\python\sudoku_solver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E33F0001-8F46-48D0-A937-5FD06E380D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6347680D-F716-4B11-B664-7D8D73784882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{DB87C03A-0C91-4F56-A7E2-3B90D592D541}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DB87C03A-0C91-4F56-A7E2-3B90D592D541}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -490,7 +490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD6DA3A8-84E4-4A29-AF13-9CF5D18A4D92}">
   <dimension ref="A1:V9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N1" sqref="N1:V9"/>
     </sheetView>
   </sheetViews>
@@ -1084,7 +1084,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BF9D6E7-024D-4244-B6F3-94DA550FD5DF}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>

--- a/sudoku_solver_analysis.xlsx
+++ b/sudoku_solver_analysis.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vikram Vasudevan\Documents\Vikram\Official\Study\python\sudoku_solver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6347680D-F716-4B11-B664-7D8D73784882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0483F70A-9427-454C-9091-303998FA228A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DB87C03A-0C91-4F56-A7E2-3B90D592D541}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{DB87C03A-0C91-4F56-A7E2-3B90D592D541}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Unsolvable" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -178,7 +179,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -490,7 +502,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD6DA3A8-84E4-4A29-AF13-9CF5D18A4D92}">
   <dimension ref="A1:V9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N1" sqref="N1:V9"/>
     </sheetView>
   </sheetViews>
@@ -1491,4 +1503,285 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C6E5090-91F9-41CA-B2A1-40A770A18861}">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>5</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>2</v>
+      </c>
+      <c r="F1">
+        <v>0</v>
+      </c>
+      <c r="G1">
+        <v>0</v>
+      </c>
+      <c r="H1">
+        <v>1</v>
+      </c>
+      <c r="I1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>8</v>
+      </c>
+      <c r="H2">
+        <v>9</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>7</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>9</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7">
+        <v>6</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:I9">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/sudoku_solver_analysis.xlsx
+++ b/sudoku_solver_analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vikram Vasudevan\Documents\Vikram\Official\Study\python\sudoku_solver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0483F70A-9427-454C-9091-303998FA228A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC8A594-B04E-41DD-9B53-8333D92AE889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{DB87C03A-0C91-4F56-A7E2-3B90D592D541}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DB87C03A-0C91-4F56-A7E2-3B90D592D541}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -143,7 +143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -173,6 +173,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -502,8 +505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD6DA3A8-84E4-4A29-AF13-9CF5D18A4D92}">
   <dimension ref="A1:V9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:V9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T7" sqref="T7:V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.77734375" defaultRowHeight="31.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -539,31 +542,31 @@
       <c r="I1" s="3">
         <v>0</v>
       </c>
-      <c r="N1" s="4">
-        <v>0</v>
-      </c>
-      <c r="O1" s="4">
+      <c r="N1" s="1">
+        <v>0</v>
+      </c>
+      <c r="O1" s="2">
         <v>1</v>
       </c>
-      <c r="P1" s="4">
+      <c r="P1" s="3">
         <v>2</v>
       </c>
-      <c r="Q1" s="4">
+      <c r="Q1" s="1">
         <v>3</v>
       </c>
-      <c r="R1" s="4">
+      <c r="R1" s="2">
         <v>4</v>
       </c>
-      <c r="S1" s="4">
+      <c r="S1" s="3">
         <v>5</v>
       </c>
-      <c r="T1" s="4">
+      <c r="T1" s="1">
         <v>6</v>
       </c>
-      <c r="U1" s="4">
+      <c r="U1" s="2">
         <v>7</v>
       </c>
-      <c r="V1" s="4">
+      <c r="V1" s="3">
         <v>8</v>
       </c>
     </row>
@@ -595,39 +598,39 @@
       <c r="I2" s="6">
         <v>0</v>
       </c>
-      <c r="N2" s="4">
+      <c r="N2" s="5">
         <f>N1+9</f>
         <v>9</v>
       </c>
-      <c r="O2" s="4">
+      <c r="O2" s="11">
         <f>N2+1</f>
         <v>10</v>
       </c>
-      <c r="P2" s="4">
+      <c r="P2" s="6">
         <f t="shared" ref="P2:V2" si="0">O2+1</f>
         <v>11</v>
       </c>
-      <c r="Q2" s="4">
+      <c r="Q2" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="R2" s="4">
+      <c r="R2" s="11">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="S2" s="4">
+      <c r="S2" s="6">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="T2" s="4">
+      <c r="T2" s="5">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="U2" s="4">
+      <c r="U2" s="11">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="V2" s="4">
+      <c r="V2" s="6">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
@@ -660,39 +663,39 @@
       <c r="I3" s="9">
         <v>1</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="7">
         <f t="shared" ref="N3:N9" si="1">N2+9</f>
         <v>18</v>
       </c>
-      <c r="O3" s="4">
+      <c r="O3" s="8">
         <f t="shared" ref="O3:V3" si="2">N3+1</f>
         <v>19</v>
       </c>
-      <c r="P3" s="4">
+      <c r="P3" s="9">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="Q3" s="7">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="R3" s="4">
+      <c r="R3" s="8">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="S3" s="4">
+      <c r="S3" s="9">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="T3" s="4">
+      <c r="T3" s="7">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="U3" s="4">
+      <c r="U3" s="8">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="V3" s="4">
+      <c r="V3" s="9">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -725,39 +728,39 @@
       <c r="I4" s="3">
         <v>0</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="1">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="O4" s="4">
+      <c r="O4" s="2">
         <f t="shared" ref="O4:V4" si="3">N4+1</f>
         <v>28</v>
       </c>
-      <c r="P4" s="4">
+      <c r="P4" s="3">
         <f t="shared" si="3"/>
         <v>29</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="Q4" s="1">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="R4" s="4">
+      <c r="R4" s="2">
         <f t="shared" si="3"/>
         <v>31</v>
       </c>
-      <c r="S4" s="4">
+      <c r="S4" s="3">
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
-      <c r="T4" s="4">
+      <c r="T4" s="1">
         <f t="shared" si="3"/>
         <v>33</v>
       </c>
-      <c r="U4" s="4">
+      <c r="U4" s="2">
         <f t="shared" si="3"/>
         <v>34</v>
       </c>
-      <c r="V4" s="4">
+      <c r="V4" s="3">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
@@ -790,39 +793,39 @@
       <c r="I5" s="6">
         <v>0</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="5">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5" s="11">
         <f t="shared" ref="O5:V5" si="4">N5+1</f>
         <v>37</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P5" s="6">
         <f t="shared" si="4"/>
         <v>38</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="Q5" s="5">
         <f t="shared" si="4"/>
         <v>39</v>
       </c>
-      <c r="R5" s="4">
+      <c r="R5" s="11">
         <f t="shared" si="4"/>
         <v>40</v>
       </c>
-      <c r="S5" s="4">
+      <c r="S5" s="6">
         <f t="shared" si="4"/>
         <v>41</v>
       </c>
-      <c r="T5" s="4">
+      <c r="T5" s="5">
         <f t="shared" si="4"/>
         <v>42</v>
       </c>
-      <c r="U5" s="4">
+      <c r="U5" s="11">
         <f t="shared" si="4"/>
         <v>43</v>
       </c>
-      <c r="V5" s="4">
+      <c r="V5" s="6">
         <f t="shared" si="4"/>
         <v>44</v>
       </c>
@@ -855,39 +858,39 @@
       <c r="I6" s="9">
         <v>0</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="7">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="O6" s="4">
+      <c r="O6" s="8">
         <f t="shared" ref="O6:V6" si="5">N6+1</f>
         <v>46</v>
       </c>
-      <c r="P6" s="4">
+      <c r="P6" s="9">
         <f t="shared" si="5"/>
         <v>47</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="Q6" s="7">
         <f t="shared" si="5"/>
         <v>48</v>
       </c>
-      <c r="R6" s="4">
+      <c r="R6" s="8">
         <f t="shared" si="5"/>
         <v>49</v>
       </c>
-      <c r="S6" s="4">
+      <c r="S6" s="9">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="T6" s="4">
+      <c r="T6" s="7">
         <f t="shared" si="5"/>
         <v>51</v>
       </c>
-      <c r="U6" s="4">
+      <c r="U6" s="8">
         <f t="shared" si="5"/>
         <v>52</v>
       </c>
-      <c r="V6" s="4">
+      <c r="V6" s="9">
         <f t="shared" si="5"/>
         <v>53</v>
       </c>
@@ -920,39 +923,39 @@
       <c r="I7" s="3">
         <v>0</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="1">
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O7" s="2">
         <f t="shared" ref="O7:V7" si="6">N7+1</f>
         <v>55</v>
       </c>
-      <c r="P7" s="4">
+      <c r="P7" s="3">
         <f t="shared" si="6"/>
         <v>56</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="Q7" s="1">
         <f t="shared" si="6"/>
         <v>57</v>
       </c>
-      <c r="R7" s="4">
+      <c r="R7" s="2">
         <f t="shared" si="6"/>
         <v>58</v>
       </c>
-      <c r="S7" s="4">
+      <c r="S7" s="3">
         <f t="shared" si="6"/>
         <v>59</v>
       </c>
-      <c r="T7" s="4">
+      <c r="T7" s="1">
         <f t="shared" si="6"/>
         <v>60</v>
       </c>
-      <c r="U7" s="4">
+      <c r="U7" s="2">
         <f t="shared" si="6"/>
         <v>61</v>
       </c>
-      <c r="V7" s="4">
+      <c r="V7" s="3">
         <f t="shared" si="6"/>
         <v>62</v>
       </c>
@@ -985,39 +988,39 @@
       <c r="I8" s="6">
         <v>0</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="5">
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O8" s="11">
         <f t="shared" ref="O8:V8" si="7">N8+1</f>
         <v>64</v>
       </c>
-      <c r="P8" s="4">
+      <c r="P8" s="6">
         <f t="shared" si="7"/>
         <v>65</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="Q8" s="5">
         <f t="shared" si="7"/>
         <v>66</v>
       </c>
-      <c r="R8" s="4">
+      <c r="R8" s="11">
         <f t="shared" si="7"/>
         <v>67</v>
       </c>
-      <c r="S8" s="4">
+      <c r="S8" s="6">
         <f t="shared" si="7"/>
         <v>68</v>
       </c>
-      <c r="T8" s="4">
+      <c r="T8" s="5">
         <f t="shared" si="7"/>
         <v>69</v>
       </c>
-      <c r="U8" s="4">
+      <c r="U8" s="11">
         <f t="shared" si="7"/>
         <v>70</v>
       </c>
-      <c r="V8" s="4">
+      <c r="V8" s="6">
         <f t="shared" si="7"/>
         <v>71</v>
       </c>
@@ -1050,39 +1053,39 @@
       <c r="I9" s="9">
         <v>0</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="7">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O9" s="8">
         <f t="shared" ref="O9:V9" si="8">N9+1</f>
         <v>73</v>
       </c>
-      <c r="P9" s="4">
+      <c r="P9" s="9">
         <f t="shared" si="8"/>
         <v>74</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="Q9" s="7">
         <f t="shared" si="8"/>
         <v>75</v>
       </c>
-      <c r="R9" s="4">
+      <c r="R9" s="8">
         <f t="shared" si="8"/>
         <v>76</v>
       </c>
-      <c r="S9" s="4">
+      <c r="S9" s="9">
         <f t="shared" si="8"/>
         <v>77</v>
       </c>
-      <c r="T9" s="4">
+      <c r="T9" s="7">
         <f t="shared" si="8"/>
         <v>78</v>
       </c>
-      <c r="U9" s="4">
+      <c r="U9" s="8">
         <f t="shared" si="8"/>
         <v>79</v>
       </c>
-      <c r="V9" s="4">
+      <c r="V9" s="9">
         <f t="shared" si="8"/>
         <v>80</v>
       </c>
@@ -1509,7 +1512,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C6E5090-91F9-41CA-B2A1-40A770A18861}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>

--- a/sudoku_solver_analysis.xlsx
+++ b/sudoku_solver_analysis.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vikram Vasudevan\Documents\Vikram\Official\Study\python\sudoku_solver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC8A594-B04E-41DD-9B53-8333D92AE889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5547E23-662A-4E77-93EC-7F1D4D8D433A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DB87C03A-0C91-4F56-A7E2-3B90D592D541}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{DB87C03A-0C91-4F56-A7E2-3B90D592D541}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Unsolvable" sheetId="3" r:id="rId3"/>
+    <sheet name="Grid Converter" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -47,6 +48,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -175,9 +182,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -505,7 +510,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD6DA3A8-84E4-4A29-AF13-9CF5D18A4D92}">
   <dimension ref="A1:V9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T7" sqref="T7:V9"/>
     </sheetView>
   </sheetViews>
@@ -602,7 +607,7 @@
         <f>N1+9</f>
         <v>9</v>
       </c>
-      <c r="O2" s="11">
+      <c r="O2" s="4">
         <f>N2+1</f>
         <v>10</v>
       </c>
@@ -614,7 +619,7 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="R2" s="11">
+      <c r="R2" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
@@ -626,7 +631,7 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="U2" s="11">
+      <c r="U2" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -797,7 +802,7 @@
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="O5" s="11">
+      <c r="O5" s="4">
         <f t="shared" ref="O5:V5" si="4">N5+1</f>
         <v>37</v>
       </c>
@@ -809,7 +814,7 @@
         <f t="shared" si="4"/>
         <v>39</v>
       </c>
-      <c r="R5" s="11">
+      <c r="R5" s="4">
         <f t="shared" si="4"/>
         <v>40</v>
       </c>
@@ -821,7 +826,7 @@
         <f t="shared" si="4"/>
         <v>42</v>
       </c>
-      <c r="U5" s="11">
+      <c r="U5" s="4">
         <f t="shared" si="4"/>
         <v>43</v>
       </c>
@@ -992,7 +997,7 @@
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
-      <c r="O8" s="11">
+      <c r="O8" s="4">
         <f t="shared" ref="O8:V8" si="7">N8+1</f>
         <v>64</v>
       </c>
@@ -1004,7 +1009,7 @@
         <f t="shared" si="7"/>
         <v>66</v>
       </c>
-      <c r="R8" s="11">
+      <c r="R8" s="4">
         <f t="shared" si="7"/>
         <v>67</v>
       </c>
@@ -1016,7 +1021,7 @@
         <f t="shared" si="7"/>
         <v>69</v>
       </c>
-      <c r="U8" s="11">
+      <c r="U8" s="4">
         <f t="shared" si="7"/>
         <v>70</v>
       </c>
@@ -1787,4 +1792,394 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F27A290B-B1DA-418B-93C5-3BE88B782447}">
+  <dimension ref="A1:M9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>8</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <v>0</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>2</v>
+      </c>
+      <c r="I1">
+        <v>0</v>
+      </c>
+      <c r="K1" s="11" t="str">
+        <f>_xlfn.TEXTJOIN(",",FALSE,A1:I1)</f>
+        <v>0,0,0,8,0,0,5,2,0</v>
+      </c>
+      <c r="L1" s="11" t="str">
+        <f>_xlfn.CONCAT("[",K1,"]")</f>
+        <v>[0,0,0,8,0,0,5,2,0]</v>
+      </c>
+      <c r="M1" s="11" t="str">
+        <f>_xlfn.CONCAT(L1,",")</f>
+        <v>[0,0,0,8,0,0,5,2,0],</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>7</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="11" t="str">
+        <f t="shared" ref="K2:K9" si="0">_xlfn.TEXTJOIN(",",FALSE,A2:I2)</f>
+        <v>0,0,0,0,7,0,0,0,0</v>
+      </c>
+      <c r="L2" s="11" t="str">
+        <f t="shared" ref="L2:L9" si="1">_xlfn.CONCAT("[",K2,"]")</f>
+        <v>[0,0,0,0,7,0,0,0,0]</v>
+      </c>
+      <c r="M2" s="11" t="str">
+        <f t="shared" ref="M2:M9" si="2">_xlfn.CONCAT(L2,",")</f>
+        <v>[0,0,0,0,7,0,0,0,0],</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="K3" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,0,9,0,5,1,4,0</v>
+      </c>
+      <c r="L3" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>[0,0,0,9,0,5,1,4,0]</v>
+      </c>
+      <c r="M3" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>[0,0,0,9,0,5,1,4,0],</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>8</v>
+      </c>
+      <c r="K4" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,4,0,5,0,2,0,8</v>
+      </c>
+      <c r="L4" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>[0,0,4,0,5,0,2,0,8]</v>
+      </c>
+      <c r="M4" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>[0,0,4,0,5,0,2,0,8],</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>9,0,0,0,0,4,0,3,0</v>
+      </c>
+      <c r="L5" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>[9,0,0,0,0,4,0,3,0]</v>
+      </c>
+      <c r="M5" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>[9,0,0,0,0,4,0,3,0],</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,6,0,0,0,0,0,0</v>
+      </c>
+      <c r="L6" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>[0,0,6,0,0,0,0,0,0]</v>
+      </c>
+      <c r="M6" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>[0,0,6,0,0,0,0,0,0],</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>9</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="K7" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,0,0,6,9,0,0,3</v>
+      </c>
+      <c r="L7" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>[0,0,0,0,6,9,0,0,3]</v>
+      </c>
+      <c r="M7" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>[0,0,0,0,6,9,0,0,3],</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="K8" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>7,8,1,0,0,0,0,0,0</v>
+      </c>
+      <c r="L8" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>[7,8,1,0,0,0,0,0,0]</v>
+      </c>
+      <c r="M8" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>[7,8,1,0,0,0,0,0,0],</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="K9" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>0,6,0,2,0,0,0,0,0</v>
+      </c>
+      <c r="L9" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>[0,6,0,2,0,0,0,0,0]</v>
+      </c>
+      <c r="M9" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>[0,6,0,2,0,0,0,0,0],</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>